--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376293.3082743285</v>
+        <v>373007.8661325563</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221765</v>
+        <v>2114249.189782366</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179436</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4902171.467891437</v>
+        <v>5117581.913230948</v>
       </c>
     </row>
     <row r="11">
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>9.977552361264268</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>19.9316902659215</v>
       </c>
       <c r="T4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F5" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="6">
@@ -975,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>27.29193749722201</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="H7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1151,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>16.93162886246721</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="9">
@@ -1215,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1227,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1306,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>39.58387696184059</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
-        <v>9.977552361264268</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1370,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="D11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G11" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1470,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="U12" t="n">
-        <v>34.11888750173132</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1512,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="13">
@@ -1543,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1613,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1649,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1734,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1774,22 +1776,22 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>39.58387696184059</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1889,16 +1891,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1929,22 +1931,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>44.13217237922859</v>
+        <v>39.08117332487345</v>
       </c>
       <c r="F18" t="n">
-        <v>38.87161743162455</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>44.13217237922859</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1986,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X20" t="n">
         <v>241.0142888776591</v>
@@ -2163,25 +2165,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,19 +2210,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>31.76132659619708</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>92.43182268622287</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2278,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2290,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2336,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,31 +2362,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2412,13 +2414,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>19.88115785055016</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>49.4075497915174</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2564,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.96396779500064</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>55.3715410770948</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2646,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>134.667568689459</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2798,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2810,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>9.234466016111838</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,22 +2836,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>99.961371017445</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2937,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>161.6539054008995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C32" t="n">
         <v>241.0142888776591</v>
@@ -3044,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>234.288905720311</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3071,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3114,19 +3116,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>35.69116770972288</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>101.8170792092338</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3202,37 +3204,37 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>74.95904355882617</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3421,55 +3423,55 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>41.7314554634327</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3545,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>167.7849206417118</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>96.06641246444056</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>198.2885478252618</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3822,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>16.69627952647113</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="43">
@@ -3916,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3937,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3980,16 +3982,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>39.58387696184059</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="G44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,10 +4024,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>24.87477961344436</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4056,13 +4058,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>84.93132355949653</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4101,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>39.58387696184059</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>39.58387696184059</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L2" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M2" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N2" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S2" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T2" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U2" t="n">
-        <v>123.1178524655551</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V2" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W2" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X2" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M3" t="n">
-        <v>3.166710156947247</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N3" t="n">
-        <v>40.77139327069581</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W3" t="n">
-        <v>123.1178524655551</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X3" t="n">
-        <v>83.13413836268582</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y3" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="C4" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="D4" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="E4" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="F4" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="G4" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="H4" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="I4" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="J4" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q4" t="n">
-        <v>93.21247408113457</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R4" t="n">
-        <v>53.22875997826529</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S4" t="n">
-        <v>53.22875997826529</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="T4" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="U4" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="V4" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="W4" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="X4" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C5" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D5" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E5" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>135.1878417126385</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>95.20412760976917</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>55.22041350689989</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>120.7308247336138</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C6" t="n">
-        <v>38.38436553875449</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D6" t="n">
-        <v>38.38436553875449</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E6" t="n">
-        <v>38.38436553875449</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F6" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M6" t="n">
-        <v>120.7308247336138</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N6" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O6" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>78.36807964162378</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X6" t="n">
-        <v>78.36807964162378</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y6" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G7" t="n">
-        <v>105.6285745504463</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="H7" t="n">
-        <v>65.64486044757699</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="I7" t="n">
-        <v>65.64486044757699</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.166710156947247</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C8" t="n">
-        <v>3.166710156947247</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="D8" t="n">
-        <v>3.166710156947247</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="E8" t="n">
-        <v>3.166710156947247</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="F8" t="n">
-        <v>3.166710156947247</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="G8" t="n">
-        <v>3.166710156947247</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="H8" t="n">
-        <v>3.166710156947247</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M8" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>108.260178376266</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S8" t="n">
-        <v>68.2764642733967</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T8" t="n">
-        <v>28.29275017052741</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U8" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V8" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W8" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X8" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.166710156947247</v>
+        <v>121.8591222504766</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>43.90455691260225</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C9" t="n">
-        <v>43.90455691260225</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D9" t="n">
-        <v>43.90455691260225</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E9" t="n">
-        <v>43.90455691260225</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F9" t="n">
-        <v>43.90455691260225</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G9" t="n">
-        <v>43.90455691260225</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M9" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N9" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O9" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>123.8719851183408</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>83.88827101547153</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>43.90455691260225</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X9" t="n">
-        <v>43.90455691260225</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y9" t="n">
-        <v>43.90455691260225</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H10" t="n">
-        <v>93.21247408113457</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I10" t="n">
-        <v>53.22875997826529</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J10" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C11" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D11" t="n">
-        <v>78.36807964162378</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E11" t="n">
-        <v>78.36807964162378</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F11" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G11" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L11" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M11" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N11" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O11" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X11" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y11" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M12" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N12" t="n">
-        <v>119.1474696551402</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P12" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>38.38436553875449</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U12" t="n">
-        <v>3.920842809732961</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V12" t="n">
-        <v>3.920842809732961</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W12" t="n">
-        <v>3.920842809732961</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X12" t="n">
-        <v>3.920842809732961</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C13" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D13" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E13" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F13" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G13" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H13" t="n">
-        <v>43.15042425981653</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I13" t="n">
-        <v>43.15042425981653</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J13" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>50.47982994280417</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V13" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W13" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X13" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y13" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>83.13413836268582</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="C14" t="n">
-        <v>83.13413836268582</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="D14" t="n">
-        <v>83.13413836268582</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="E14" t="n">
-        <v>43.15042425981653</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="F14" t="n">
-        <v>43.15042425981653</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G14" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H14" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M14" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N14" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O14" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S14" t="n">
-        <v>123.1178524655551</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T14" t="n">
-        <v>83.13413836268582</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U14" t="n">
-        <v>83.13413836268582</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V14" t="n">
-        <v>83.13413836268582</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W14" t="n">
-        <v>83.13413836268582</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X14" t="n">
-        <v>83.13413836268582</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y14" t="n">
-        <v>83.13413836268582</v>
+        <v>121.8591222504766</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L15" t="n">
-        <v>3.166710156947247</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M15" t="n">
-        <v>3.166710156947247</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N15" t="n">
-        <v>42.35474834916943</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O15" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P15" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V15" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W15" t="n">
-        <v>78.36807964162378</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X15" t="n">
-        <v>38.38436553875449</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F16" t="n">
-        <v>123.1178524655551</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G16" t="n">
-        <v>83.13413836268582</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H16" t="n">
-        <v>43.15042425981653</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I16" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J16" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.530573790338288</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C17" t="n">
-        <v>3.530573790338288</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>92.68647758675968</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>48.10852568854899</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.530573790338288</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.5286895169144</v>
+        <v>548.4453565401495</v>
       </c>
       <c r="C18" t="n">
-        <v>176.5286895169144</v>
+        <v>548.4453565401495</v>
       </c>
       <c r="D18" t="n">
-        <v>176.5286895169144</v>
+        <v>548.4453565401495</v>
       </c>
       <c r="E18" t="n">
-        <v>131.9507376187037</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>92.68647758675968</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>48.10852568854899</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>3.530573790338288</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>45.45613755060546</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>89.14698820604177</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>176.5286895169144</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y18" t="n">
-        <v>176.5286895169144</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5789,13 +5791,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>587.3567013424552</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C21" t="n">
-        <v>587.3567013424552</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D21" t="n">
-        <v>438.4222916812039</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E21" t="n">
-        <v>279.1848366757484</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F21" t="n">
-        <v>132.6502787026334</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,19 +5837,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>830.8054779865552</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>830.8054779865552</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>830.8054779865552</v>
+        <v>393.9182094121256</v>
       </c>
       <c r="V21" t="n">
-        <v>830.8054779865552</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="W21" t="n">
-        <v>587.3567013424552</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="X21" t="n">
-        <v>587.3567013424552</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="Y21" t="n">
-        <v>587.3567013424552</v>
+        <v>158.7661011803829</v>
       </c>
     </row>
     <row r="22">
@@ -5926,22 +5928,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>284.1276524520142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>40.6788758079141</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>40.6788758079141</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>40.6788758079141</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>333.21913046151</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="C24" t="n">
-        <v>158.7661011803829</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="D24" t="n">
-        <v>158.7661011803829</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E24" t="n">
-        <v>158.7661011803829</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F24" t="n">
-        <v>158.7661011803829</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>943.9751778838179</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>770.5578333344868</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>568.3712386932527</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>568.3712386932527</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V24" t="n">
-        <v>333.21913046151</v>
+        <v>812.9810101124942</v>
       </c>
       <c r="W24" t="n">
-        <v>333.21913046151</v>
+        <v>569.5322334683942</v>
       </c>
       <c r="X24" t="n">
-        <v>333.21913046151</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="Y24" t="n">
-        <v>333.21913046151</v>
+        <v>361.6807332628614</v>
       </c>
     </row>
     <row r="25">
@@ -6172,10 +6174,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6253,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="T26" t="n">
-        <v>577.2332497330343</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U26" t="n">
-        <v>577.2332497330343</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6312,10 +6314,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>399.5118995681682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>156.0631229240681</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>20.03527576299844</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U29" t="n">
-        <v>710.516763498309</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>397.4029371266039</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="C30" t="n">
-        <v>222.9499078454769</v>
+        <v>554.4520179977666</v>
       </c>
       <c r="D30" t="n">
-        <v>222.9499078454769</v>
+        <v>405.5176083365153</v>
       </c>
       <c r="E30" t="n">
-        <v>222.9499078454769</v>
+        <v>405.5176083365153</v>
       </c>
       <c r="F30" t="n">
-        <v>222.9499078454769</v>
+        <v>258.9830503634003</v>
       </c>
       <c r="G30" t="n">
-        <v>222.9499078454769</v>
+        <v>120.2522249460158</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>248.2447175439888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6585,7 +6587,7 @@
         <v>728.9050472788936</v>
       </c>
       <c r="Y30" t="n">
-        <v>565.6182741466719</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C32" t="n">
-        <v>499.3853800778592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>222.9499078454769</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="C33" t="n">
-        <v>222.9499078454769</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="D33" t="n">
-        <v>222.9499078454769</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="E33" t="n">
-        <v>222.9499078454769</v>
+        <v>194.0636530828729</v>
       </c>
       <c r="F33" t="n">
-        <v>222.9499078454769</v>
+        <v>194.0636530828729</v>
       </c>
       <c r="G33" t="n">
-        <v>222.9499078454769</v>
+        <v>55.33282766548837</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>533.6469426057913</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>430.8014080510097</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W33" t="n">
-        <v>430.8014080510097</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X33" t="n">
-        <v>222.9499078454769</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y33" t="n">
-        <v>222.9499078454769</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6973,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>787.171420448546</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>612.718391167419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7020,13 +7022,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>862.8876260635219</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X36" t="n">
-        <v>862.8876260635219</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y36" t="n">
-        <v>862.8876260635219</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7260,13 +7262,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>492.3847606029253</v>
+        <v>693.407908243611</v>
       </c>
       <c r="X39" t="n">
-        <v>284.5332603973924</v>
+        <v>485.5564080380782</v>
       </c>
       <c r="Y39" t="n">
-        <v>187.4964801302808</v>
+        <v>277.7961092731243</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
         <v>829.5248650203655</v>
@@ -7369,13 +7371,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>219.2087419265811</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>18.91727947682168</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>104.1029673515831</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>284.1788189362417</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>935.7723584728571</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T41" t="n">
-        <v>935.7723584728571</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>935.7723584728571</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>935.7723584728571</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W41" t="n">
-        <v>935.7723584728571</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>696.9178196240985</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>458.0632807753398</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>35.78220829143899</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>35.78220829143899</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>18.91727947682168</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>248.8803853451708</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>482.9817188708391</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>717.0830523965075</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>945.8639738410842</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>717.6403555774732</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>482.4882473457305</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>243.6337084969718</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>35.78220829143899</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>35.78220829143899</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R43" t="n">
-        <v>153.4495699670924</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S43" t="n">
-        <v>18.91727947682168</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T43" t="n">
-        <v>18.91727947682168</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>83.13413836268582</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C44" t="n">
-        <v>83.13413836268582</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D44" t="n">
-        <v>83.13413836268582</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E44" t="n">
-        <v>83.13413836268582</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F44" t="n">
-        <v>43.15042425981653</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>40.77139327069581</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>79.95943146291799</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>119.1474696551402</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>158.3355078473624</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>158.3355078473624</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>148.2438924791353</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>123.1178524655551</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>83.13413836268582</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>83.13413836268582</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>83.13413836268582</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>83.13413836268582</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W44" t="n">
-        <v>83.13413836268582</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X44" t="n">
-        <v>83.13413836268582</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y44" t="n">
-        <v>83.13413836268582</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.166710156947247</v>
+        <v>279.5233881080029</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>105.0703588268759</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>105.0703588268759</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>40.77139327069581</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>40.77139327069581</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>79.95943146291799</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>119.1474696551402</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>158.3355078473624</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>158.3355078473624</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U45" t="n">
-        <v>118.3517937444931</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V45" t="n">
-        <v>118.3517937444931</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W45" t="n">
-        <v>83.13413836268582</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X45" t="n">
-        <v>43.15042425981653</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.166710156947247</v>
+        <v>279.5233881080029</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L2" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>268.0827398194126</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3262404810591</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,16 +8218,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>267.3975919943167</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O5" t="n">
         <v>230.0982114216867</v>
@@ -8295,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N6" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>268.3307616249986</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,19 +8540,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>180.1185623197441</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N9" t="n">
-        <v>170.9255890451739</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L11" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8930,19 +8932,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M14" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>268.0827398194126</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>171.9589358120561</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9404,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9483,22 +9485,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>292.5201795090609</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9960,13 +9962,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133073</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>243.2069195535496</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10206,10 +10208,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,16 +10670,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10908,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O39" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>306.1360004134264</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>373.6880842874513</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>258.0743794427063</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>269.9301101891133</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>268.9969405584315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7179108838589</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N45" t="n">
-        <v>170.9255890451739</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>182.180121406285</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22592,7 +22594,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>110.9975005095251</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22601,19 +22603,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>216.4801740798473</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>288.1683815082943</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W2" t="n">
-        <v>309.6570917555724</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22671,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22686,13 +22688,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>216.8295043329304</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>166.1891082416369</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y3" t="n">
-        <v>166.0988188154638</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="4">
@@ -22729,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>12.29193946461858</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,19 +22746,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R4" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>204.0849077710508</v>
       </c>
       <c r="T4" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22781,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>326.401274339383</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F5" t="n">
-        <v>383.9598562683348</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="6">
@@ -22863,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>106.1975949617593</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>78.11655673476514</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,10 +22913,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22923,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="7">
@@ -22954,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>140.6990418612368</v>
+        <v>145.3378483574308</v>
       </c>
       <c r="H7" t="n">
-        <v>122.643295545599</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23039,10 +23041,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>193.5442607079387</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>226.4708732943921</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="9">
@@ -23103,7 +23105,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23115,13 +23117,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23154,16 +23156,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>191.8224945792435</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>212.111106199079</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23194,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>122.643295545599</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
-        <v>12.29193946461858</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23258,22 +23260,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>326.401274339383</v>
       </c>
       <c r="D11" t="n">
-        <v>315.0991646588424</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G11" t="n">
-        <v>380.4372586871459</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23358,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>160.580851732981</v>
+        <v>161.2931112631971</v>
       </c>
       <c r="U12" t="n">
-        <v>191.8224945792435</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23400,10 +23402,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="13">
@@ -23431,16 +23433,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J13" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>216.7604864108145</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23501,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>377.9951275246317</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I14" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>174.1545907582562</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23574,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>133.8368815566912</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23622,25 +23624,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V15" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>170.8172169493152</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23662,22 +23664,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>135.443495661667</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>122.643295545599</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I16" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>120.9881997240699</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23798,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23817,22 +23819,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>113.5129080761724</v>
+        <v>118.5639071305275</v>
       </c>
       <c r="F18" t="n">
-        <v>106.1975949617593</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>68.10327185726787</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23874,10 +23876,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23935,22 +23937,22 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>285.7325478889088</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24029,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X20" t="n">
         <v>128.71681180081</v>
@@ -24051,25 +24053,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,19 +24098,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>139.9218445076407</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>133.5095593947519</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24166,10 +24168,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24178,13 +24180,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>207.8341597252609</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24224,10 +24226,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>201.2414235542941</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,31 +24250,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24300,13 +24302,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.27667630209297</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>183.3930373579079</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24412,13 +24414,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24452,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24461,7 +24463,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>126.0561017912447</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>257.4082506688596</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>111.1616425727725</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,19 +24578,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>71.10541651401849</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24649,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24686,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24698,10 +24700,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>201.2414235542941</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>12.27407321905146</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24825,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>44.02879037640488</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C32" t="n">
         <v>124.2586028933485</v>
@@ -24932,7 +24934,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>105.1858963954562</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -25002,19 +25004,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>76.54427652677359</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25044,22 +25046,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>130.9835079401915</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25090,7 +25092,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25120,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25211,16 +25213,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>91.57414009104117</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25290,16 +25292,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25403,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>373.5712820517024</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25451,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25488,7 +25490,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25524,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>83.91006251920783</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>109.6162833128638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25558,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.2678482032095</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>166.9843439457457</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25676,7 +25678,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25685,16 +25687,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.7719451957825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25710,7 +25712,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>130.7487860381676</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25767,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="43">
@@ -25804,13 +25806,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25825,7 +25827,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>86.16204325169439</v>
@@ -25834,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25868,16 +25870,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>367.2921687798708</v>
+        <v>366.3997666085763</v>
       </c>
       <c r="G44" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>124.9943383277053</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25922,10 +25924,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25944,13 +25946,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>72.71375689590441</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>216.8295043329304</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>166.0988188154638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26074,16 +26076,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>246.7351523946503</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>276.5454459753267</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355290.5609397931</v>
+        <v>358683.47350043</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355290.5609397931</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355290.5609397931</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495368.7837729878</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355290.5609397931</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.8032107192</v>
       </c>
       <c r="C2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.80321071921</v>
       </c>
       <c r="D2" t="n">
-        <v>71053.67965375917</v>
+        <v>71731.80321071927</v>
       </c>
       <c r="E2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.80321071927</v>
       </c>
       <c r="F2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.80321071926</v>
       </c>
       <c r="G2" t="n">
-        <v>71731.80321071926</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="L2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="M2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="N2" t="n">
         <v>99696.40351879934</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="P2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99050.37600907718</v>
-      </c>
-      <c r="P2" t="n">
-        <v>71053.67965375919</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="C4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="D4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="E4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="F4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="G4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
         <v>16914.68964098084</v>
@@ -26454,10 +26456,10 @@
         <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16801.53650439377</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>11897.85367509446</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9856.058660301904</v>
+        <v>8614.632621000455</v>
       </c>
       <c r="C6" t="n">
-        <v>23121.52625938482</v>
+        <v>23404.33862524469</v>
       </c>
       <c r="D6" t="n">
-        <v>23121.52625938481</v>
+        <v>23404.33862524475</v>
       </c>
       <c r="E6" t="n">
-        <v>56749.12625938482</v>
+        <v>57031.93862524475</v>
       </c>
       <c r="F6" t="n">
-        <v>56749.12625938482</v>
+        <v>57031.93862524474</v>
       </c>
       <c r="G6" t="n">
-        <v>55785.31907576995</v>
+        <v>14165.61021358458</v>
       </c>
       <c r="H6" t="n">
-        <v>15007.47814373185</v>
+        <v>68128.04511405689</v>
       </c>
       <c r="I6" t="n">
-        <v>68128.04511405685</v>
+        <v>68128.04511405686</v>
       </c>
       <c r="J6" t="n">
-        <v>57771.16121025306</v>
+        <v>56581.12700406594</v>
       </c>
       <c r="K6" t="n">
-        <v>68128.04511405691</v>
+        <v>68128.04511405683</v>
       </c>
       <c r="L6" t="n">
         <v>68128.04511405686</v>
       </c>
       <c r="M6" t="n">
+        <v>68128.04511405686</v>
+      </c>
+      <c r="N6" t="n">
         <v>68128.04511405683</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
+        <v>20748.1668965931</v>
+      </c>
+      <c r="P6" t="n">
         <v>68128.04511405686</v>
-      </c>
-      <c r="O6" t="n">
-        <v>67871.70710229894</v>
-      </c>
-      <c r="P6" t="n">
-        <v>56749.12625938482</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35650,19 +35652,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36680,13 +36682,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>99.81127712997396</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36926,10 +36928,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>226.4350751681936</v>
-      </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37628,16 +37630,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37780,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>86.04614936844587</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>231.0918398430068</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>37.98452839772582</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>39.58387696184059</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>39.58387696184059</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>39.58387696184059</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373007.8661325563</v>
+        <v>267281.5962860415</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782366</v>
+        <v>925399.3994514375</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956401</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5117581.913230948</v>
+        <v>5765385.89860145</v>
       </c>
     </row>
     <row r="11">
@@ -703,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>38.87161743162455</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>44.13217237922859</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>44.13217237922859</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>19.9316902659215</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>38.87161743162454</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="E5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -980,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>44.13217237922859</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>23.30068755143278</v>
       </c>
       <c r="Y6" t="n">
-        <v>44.13217237922859</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1068,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>44.13217237922859</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>16.93162886246721</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1229,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>38.87161743162455</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>63.14223173826446</v>
       </c>
     </row>
     <row r="10">
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22.65313100102799</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>110.8731063230731</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>44.13217237922859</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>44.13217237922859</v>
+        <v>84.05721994201966</v>
       </c>
     </row>
     <row r="13">
@@ -1545,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1651,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>38.87161743162454</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>44.13217237922859</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>130.8309467350026</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1779,19 +1779,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H16" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D17" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,25 +1928,25 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>39.08117332487345</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>140.9311839358223</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="U21" t="n">
-        <v>92.43182268622287</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,23 +2317,23 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,16 +2411,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>49.4075497915174</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2599,19 +2599,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>82.96396779500064</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55.3715410770948</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2648,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2794,28 +2794,28 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>9.234466016111838</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -2870,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>99.961371017445</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>6.817411324556144</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3116,16 +3116,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>35.69116770972288</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="34">
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3271,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3310,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>41.7314554634327</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -3559,7 +3559,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3602,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>167.7849206417118</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3672,52 +3672,52 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>202.2946864288972</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3839,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3915,16 +3915,16 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I43" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -3982,17 +3982,17 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>40.47627913313511</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4058,13 +4058,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>84.93132355949653</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4103,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>137.2644294849704</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>137.2644294849704</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>137.2644294849704</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>137.2644294849704</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V2" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W2" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>90.91227510121089</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>134.6031257566472</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
-        <v>176.5286895169144</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P3" t="n">
-        <v>176.5286895169144</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>92.68647758675968</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U3" t="n">
-        <v>92.68647758675968</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V3" t="n">
-        <v>92.68647758675968</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W3" t="n">
-        <v>92.68647758675968</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X3" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>26.02500997809875</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>26.02500997809875</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>26.02500997809875</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>26.02500997809875</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.37278572049297</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>48.10852568854899</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D5" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>176.5286895169144</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>131.9507376187037</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87.37278572049297</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C6" t="n">
-        <v>87.37278572049297</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D6" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>132.8378388614781</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>132.8378388614781</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W6" t="n">
-        <v>131.9507376187037</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="X6" t="n">
-        <v>131.9507376187037</v>
+        <v>375.9758515364179</v>
       </c>
       <c r="Y6" t="n">
-        <v>87.37278572049297</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.28117035226589</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C8" t="n">
-        <v>32.70321845405519</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>32.70321845405519</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>32.70321845405519</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>32.70321845405519</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>32.70321845405519</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>32.70321845405519</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>166.4370741486873</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>166.4370741486873</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V8" t="n">
-        <v>166.4370741486873</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W8" t="n">
-        <v>166.4370741486873</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X8" t="n">
-        <v>166.4370741486873</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y8" t="n">
-        <v>121.8591222504766</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.68647758675968</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>92.68647758675968</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>48.10852568854899</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>48.10852568854899</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>48.10852568854899</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>48.10852568854899</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>45.45613755060546</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>89.14698820604177</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W9" t="n">
-        <v>137.2644294849704</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X9" t="n">
-        <v>92.68647758675968</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y9" t="n">
-        <v>92.68647758675968</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>176.5286895169144</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C11" t="n">
-        <v>137.2644294849704</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D11" t="n">
-        <v>92.68647758675968</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E11" t="n">
-        <v>48.10852568854899</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F11" t="n">
-        <v>3.530573790338288</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T11" t="n">
-        <v>176.5286895169144</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U11" t="n">
-        <v>176.5286895169144</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V11" t="n">
-        <v>176.5286895169144</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W11" t="n">
-        <v>176.5286895169144</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X11" t="n">
-        <v>176.5286895169144</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y11" t="n">
-        <v>176.5286895169144</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>47.22142444577459</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>47.22142444577459</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>89.14698820604177</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>137.2644294849704</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U12" t="n">
-        <v>92.68647758675968</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V12" t="n">
-        <v>92.68647758675968</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W12" t="n">
-        <v>92.68647758675968</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X12" t="n">
-        <v>48.10852568854899</v>
+        <v>104.1874258799295</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>121.8591222504766</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>121.8591222504766</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>121.8591222504766</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>121.8591222504766</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>92.68647758675968</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>166.4370741486873</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>166.4370741486873</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>166.4370741486873</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U14" t="n">
-        <v>166.4370741486873</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V14" t="n">
-        <v>166.4370741486873</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W14" t="n">
-        <v>166.4370741486873</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X14" t="n">
-        <v>121.8591222504766</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y14" t="n">
-        <v>121.8591222504766</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>42.79483382228227</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>132.8378388614781</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>132.8378388614781</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>87.37278572049297</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U15" t="n">
-        <v>42.79483382228227</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V15" t="n">
-        <v>42.79483382228227</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W15" t="n">
-        <v>42.79483382228227</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X15" t="n">
-        <v>42.79483382228227</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y15" t="n">
-        <v>42.79483382228227</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>548.4453565401495</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C18" t="n">
-        <v>548.4453565401495</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D18" t="n">
-        <v>548.4453565401495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,16 +5603,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>821.7024242623309</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>619.5158296210968</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>619.5158296210968</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>619.5158296210968</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>376.0670529769968</v>
       </c>
       <c r="X18" t="n">
-        <v>756.2056553051034</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y18" t="n">
-        <v>548.4453565401495</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="19">
@@ -5697,10 +5697,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
         <v>20.03527576299844</v>
@@ -5840,43 +5840,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="U21" t="n">
-        <v>393.9182094121256</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V21" t="n">
-        <v>158.7661011803829</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W21" t="n">
-        <v>158.7661011803829</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X21" t="n">
-        <v>158.7661011803829</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y21" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5940,13 +5940,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C23" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D23" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6080,40 +6080,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V24" t="n">
-        <v>812.9810101124942</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W24" t="n">
-        <v>569.5322334683942</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X24" t="n">
-        <v>361.6807332628614</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y24" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6165,25 +6165,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>718.7806050553886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>718.7806050553886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U26" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>249.0657303232264</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C27" t="n">
-        <v>249.0657303232264</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D27" t="n">
-        <v>249.0657303232264</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E27" t="n">
-        <v>249.0657303232264</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F27" t="n">
-        <v>249.0657303232264</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="G27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6314,16 +6314,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W27" t="n">
-        <v>720.6083788665362</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X27" t="n">
-        <v>512.7568786610034</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y27" t="n">
-        <v>304.9965798960495</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>527.5764290961142</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C29" t="n">
-        <v>284.1276524520142</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D29" t="n">
-        <v>284.1276524520142</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E29" t="n">
-        <v>40.6788758079141</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F29" t="n">
-        <v>40.6788758079141</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G29" t="n">
-        <v>40.6788758079141</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H29" t="n">
-        <v>40.6788758079141</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>527.5764290961142</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U29" t="n">
-        <v>527.5764290961142</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V29" t="n">
-        <v>527.5764290961142</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W29" t="n">
-        <v>527.5764290961142</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X29" t="n">
-        <v>527.5764290961142</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y29" t="n">
-        <v>527.5764290961142</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>728.9050472788936</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C30" t="n">
-        <v>554.4520179977666</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D30" t="n">
-        <v>405.5176083365153</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
-        <v>405.5176083365153</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>258.9830503634003</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>120.2522249460158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6545,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6575,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="X30" t="n">
-        <v>728.9050472788936</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="Y30" t="n">
-        <v>728.9050472788936</v>
+        <v>521.1869644168632</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>353.3011080883284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>353.3011080883284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>353.3011080883284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>194.0636530828729</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>194.0636530828729</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>55.33282766548837</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6782,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>353.3011080883284</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>353.3011080883284</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>353.3011080883284</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>353.3011080883284</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6882,13 +6882,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C35" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D35" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
         <v>262.7299197543128</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>277.6047704292607</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>517.4848137278872</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U38" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V38" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>109.5807722530562</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C39" t="n">
-        <v>109.5807722530562</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D39" t="n">
-        <v>109.5807722530562</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E39" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>693.407908243611</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>485.5564080380782</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>277.7961092731243</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7435,19 +7435,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
         <v>262.7299197543128</v>
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7535,7 +7535,7 @@
         <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H43" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
         <v>19.28114311021272</v>
@@ -7587,34 +7587,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7675,25 +7675,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V44" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>279.5233881080029</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>105.0703588268759</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>105.0703588268759</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
         <v>19.28114311021272</v>
@@ -7733,46 +7733,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>487.2836868729568</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V45" t="n">
-        <v>487.2836868729568</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W45" t="n">
-        <v>487.2836868729568</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X45" t="n">
-        <v>487.2836868729568</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y45" t="n">
-        <v>279.5233881080029</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>184.4830882253185</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4738844625619</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O9" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>184.9452987477446</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>180.1904932776592</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,7 +9728,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10208,10 +10208,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11381,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>110.9975005095251</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>283.6200860909063</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W2" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>61.28621672101858</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>161.6408128242489</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22731,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>204.0849077710508</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>326.401274339383</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E5" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>342.105766276825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22868,13 +22868,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>103.3128931854102</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>106.1975949617593</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>182.4722976520447</v>
       </c>
       <c r="Y6" t="n">
-        <v>161.5505233980758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>145.3378483574308</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>321.1407193917789</v>
+        <v>294.9288839697323</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23041,10 +23041,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>193.5442607079387</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23105,7 +23105,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23117,13 +23117,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>212.8233657292951</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>142.5404640390399</v>
       </c>
     </row>
     <row r="10">
@@ -23196,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>139.5740415064116</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23260,16 +23260,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>326.401274339383</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5508692414544</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>362.7438733624829</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23278,7 +23278,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23305,16 +23305,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>140.4725465847633</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23387,25 +23387,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>161.2931112631971</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>161.6408128242489</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>161.5505233980758</v>
+        <v>121.6254758352847</v>
       </c>
     </row>
     <row r="13">
@@ -23433,16 +23433,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23506,13 +23506,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>377.9951275246317</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23539,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>273.9090123488199</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>133.8368815566912</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23624,13 +23624,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>181.8092097017462</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23639,10 +23639,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>74.94203846847483</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23667,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H16" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23788,19 +23788,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>296.8154002296654</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23816,25 +23816,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>118.5639071305275</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,10 +23861,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>30.75198716801552</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23873,13 +23873,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23937,13 +23937,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24022,22 +24022,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24062,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>150.8536247525263</v>
       </c>
       <c r="U21" t="n">
-        <v>133.5095593947519</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24265,16 +24265,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24299,16 +24299,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>150.8536247525263</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>183.3930373579079</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24405,10 +24405,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24420,13 +24420,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>242.2195147380239</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24457,13 +24457,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>126.0561017912447</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>171.0109458920165</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>111.1616425727725</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24536,16 +24536,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>73.45469409868832</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24651,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160426</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24682,28 +24682,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>201.2414235542941</v>
+        <v>108.137662477717</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>12.27407321905146</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24815,19 +24815,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8775718363635</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24897,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
@@ -24940,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24973,10 +24973,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25004,16 +25004,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>76.54427652677359</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25046,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="34">
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25159,13 +25159,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>279.5921429795728</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>116.4754883813142</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25289,7 +25289,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>373.5712820517024</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25478,7 +25478,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>128.5926628167762</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25490,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25526,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>83.91006251920783</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25605,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25633,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.725383157348119</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25727,10 +25727,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>59.59762388653245</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25803,16 +25803,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I43" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25827,7 +25827,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
         <v>86.16204325169439</v>
@@ -25870,16 +25870,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>366.3997666085763</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25946,13 +25946,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>72.71375689590441</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358683.47350043</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.107484141</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71731.8032107192</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="C2" t="n">
-        <v>71731.80321071921</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="D2" t="n">
-        <v>71731.80321071927</v>
+        <v>99696.40351879943</v>
       </c>
       <c r="E2" t="n">
-        <v>71731.80321071927</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="F2" t="n">
-        <v>71731.80321071926</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="G2" t="n">
         <v>99696.4035187994</v>
       </c>
       <c r="H2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="I2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="J2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="K2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="I2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.40351879934</v>
-      </c>
       <c r="L2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="M2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879939</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
         <v>16914.68964098084</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8614.632621000455</v>
+        <v>-58486.99703753128</v>
       </c>
       <c r="C6" t="n">
-        <v>23404.33862524469</v>
+        <v>22282.4344940164</v>
       </c>
       <c r="D6" t="n">
-        <v>23404.33862524475</v>
+        <v>22282.43449401646</v>
       </c>
       <c r="E6" t="n">
-        <v>57031.93862524475</v>
+        <v>55910.03449401644</v>
       </c>
       <c r="F6" t="n">
-        <v>57031.93862524474</v>
+        <v>55910.03449401642</v>
       </c>
       <c r="G6" t="n">
-        <v>14165.61021358458</v>
+        <v>55910.03449401642</v>
       </c>
       <c r="H6" t="n">
-        <v>68128.04511405689</v>
+        <v>55910.03449401644</v>
       </c>
       <c r="I6" t="n">
-        <v>68128.04511405686</v>
+        <v>55910.03449401641</v>
       </c>
       <c r="J6" t="n">
-        <v>56581.12700406594</v>
+        <v>-7149.908105089835</v>
       </c>
       <c r="K6" t="n">
-        <v>68128.04511405683</v>
+        <v>55910.03449401643</v>
       </c>
       <c r="L6" t="n">
-        <v>68128.04511405686</v>
+        <v>55910.03449401638</v>
       </c>
       <c r="M6" t="n">
-        <v>68128.04511405686</v>
+        <v>55910.0344940164</v>
       </c>
       <c r="N6" t="n">
-        <v>68128.04511405683</v>
+        <v>55910.03449401643</v>
       </c>
       <c r="O6" t="n">
-        <v>20748.1668965931</v>
+        <v>55910.03449401641</v>
       </c>
       <c r="P6" t="n">
-        <v>68128.04511405686</v>
+        <v>55910.03449401641</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>42.34905430330016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>42.34905430330016</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>44.13217237922859</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>42.34905430330018</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>42.34905430330018</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36928,10 +36928,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
